--- a/2022/Symphony/SEPTEMBER/20.09.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/SEPTEMBER/20.09.2022/MC Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -2225,7 +2225,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3086,9 +3086,6 @@
     <xf numFmtId="0" fontId="38" fillId="45" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="45" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="21" fontId="37" fillId="45" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3251,18 +3248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3290,10 +3275,22 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4092,33 +4089,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="351"/>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
+      <c r="A1" s="350"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="352"/>
-      <c r="B2" s="349" t="s">
+      <c r="A2" s="351"/>
+      <c r="B2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="352"/>
-      <c r="B3" s="350" t="s">
+      <c r="A3" s="351"/>
+      <c r="B3" s="349" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4133,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="352"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4151,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="352"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4166,7 +4163,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="352"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="26" t="s">
         <v>45</v>
       </c>
@@ -4185,7 +4182,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="352"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="26" t="s">
         <v>46</v>
       </c>
@@ -4204,7 +4201,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="352"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="26" t="s">
         <v>48</v>
       </c>
@@ -4223,7 +4220,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="352"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
@@ -4242,7 +4239,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="352"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="26" t="s">
         <v>50</v>
       </c>
@@ -4261,7 +4258,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="352"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="26" t="s">
         <v>51</v>
       </c>
@@ -4280,7 +4277,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="352"/>
+      <c r="A13" s="351"/>
       <c r="B13" s="26" t="s">
         <v>52</v>
       </c>
@@ -4299,7 +4296,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="352"/>
+      <c r="A14" s="351"/>
       <c r="B14" s="26" t="s">
         <v>53</v>
       </c>
@@ -4318,7 +4315,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="352"/>
+      <c r="A15" s="351"/>
       <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
@@ -4337,7 +4334,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="352"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4350,7 +4347,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="352"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4363,7 +4360,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="352"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4376,7 +4373,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="352"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4389,7 +4386,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="352"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4402,7 +4399,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="352"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4415,7 +4412,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="352"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4428,7 +4425,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="352"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4441,7 +4438,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="352"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4454,7 +4451,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="352"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4467,7 +4464,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="352"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4480,7 +4477,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="352"/>
+      <c r="A27" s="351"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4493,7 +4490,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="352"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4506,7 +4503,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="352"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4519,7 +4516,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="352"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4532,7 +4529,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="352"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4545,7 +4542,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="352"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4558,7 +4555,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="352"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4571,7 +4568,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="352"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4584,7 +4581,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="352"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4597,7 +4594,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="352"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4610,7 +4607,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="352"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4623,7 +4620,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="352"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4636,7 +4633,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="352"/>
+      <c r="A39" s="351"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4649,7 +4646,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="352"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4662,7 +4659,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="352"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4675,7 +4672,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="352"/>
+      <c r="A42" s="351"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4688,7 +4685,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="352"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4701,7 +4698,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="352"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4714,7 +4711,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="352"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4727,7 +4724,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="352"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4740,7 +4737,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="352"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4753,7 +4750,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="352"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4766,7 +4763,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="352"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4779,7 +4776,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="352"/>
+      <c r="A50" s="351"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4792,7 +4789,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="352"/>
+      <c r="A51" s="351"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4805,7 +4802,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="352"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4818,7 +4815,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="352"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4831,7 +4828,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="352"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4844,7 +4841,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="352"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4856,7 +4853,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="352"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4868,7 +4865,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="352"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4880,7 +4877,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="352"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4892,7 +4889,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="352"/>
+      <c r="A59" s="351"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4904,7 +4901,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="352"/>
+      <c r="A60" s="351"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4916,7 +4913,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="352"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4928,7 +4925,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="352"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4940,7 +4937,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="352"/>
+      <c r="A63" s="351"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4952,7 +4949,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="352"/>
+      <c r="A64" s="351"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4964,7 +4961,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="352"/>
+      <c r="A65" s="351"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4976,7 +4973,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="352"/>
+      <c r="A66" s="351"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4988,7 +4985,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="352"/>
+      <c r="A67" s="351"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5000,7 +4997,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="352"/>
+      <c r="A68" s="351"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5012,7 +5009,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="352"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5024,7 +5021,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="352"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5036,7 +5033,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="352"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5048,7 +5045,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="352"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5060,7 +5057,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="352"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5072,7 +5069,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="352"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5084,7 +5081,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="352"/>
+      <c r="A75" s="351"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5096,7 +5093,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="352"/>
+      <c r="A76" s="351"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5108,7 +5105,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="352"/>
+      <c r="A77" s="351"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5120,7 +5117,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="352"/>
+      <c r="A78" s="351"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5132,7 +5129,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="352"/>
+      <c r="A79" s="351"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5144,7 +5141,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="352"/>
+      <c r="A80" s="351"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5156,7 +5153,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="352"/>
+      <c r="A81" s="351"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5168,7 +5165,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="352"/>
+      <c r="A82" s="351"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5180,7 +5177,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="352"/>
+      <c r="A83" s="351"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5237,33 +5234,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="351"/>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
+      <c r="A1" s="350"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="352"/>
-      <c r="B2" s="349" t="s">
+      <c r="A2" s="351"/>
+      <c r="B2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="352"/>
-      <c r="B3" s="350" t="s">
+      <c r="A3" s="351"/>
+      <c r="B3" s="349" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="352"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5278,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="352"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5299,7 +5296,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="352"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5311,7 +5308,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="352"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="26" t="s">
         <v>191</v>
       </c>
@@ -5329,7 +5326,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="352"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="26" t="s">
         <v>194</v>
       </c>
@@ -5347,7 +5344,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="352"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="26" t="s">
         <v>197</v>
       </c>
@@ -5365,7 +5362,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="352"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="26" t="s">
         <v>201</v>
       </c>
@@ -5383,7 +5380,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="352"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="26" t="s">
         <v>203</v>
       </c>
@@ -5401,7 +5398,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="352"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="26" t="s">
         <v>206</v>
       </c>
@@ -5419,7 +5416,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="352"/>
+      <c r="A13" s="351"/>
       <c r="B13" s="26" t="s">
         <v>213</v>
       </c>
@@ -5437,7 +5434,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="352"/>
+      <c r="A14" s="351"/>
       <c r="B14" s="26" t="s">
         <v>220</v>
       </c>
@@ -5454,7 +5451,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="352"/>
+      <c r="A15" s="351"/>
       <c r="B15" s="26" t="s">
         <v>225</v>
       </c>
@@ -5472,7 +5469,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="352"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="26" t="s">
         <v>234</v>
       </c>
@@ -5490,7 +5487,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="352"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="26" t="s">
         <v>235</v>
       </c>
@@ -5508,7 +5505,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="352"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="26" t="s">
         <v>239</v>
       </c>
@@ -5526,7 +5523,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="352"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="26" t="s">
         <v>241</v>
       </c>
@@ -5544,7 +5541,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="352"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="26" t="s">
         <v>244</v>
       </c>
@@ -5562,7 +5559,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="352"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="26" t="s">
         <v>245</v>
       </c>
@@ -5580,7 +5577,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="352"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="26" t="s">
         <v>249</v>
       </c>
@@ -5598,7 +5595,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="352"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="26" t="s">
         <v>252</v>
       </c>
@@ -5616,7 +5613,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="352"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5628,7 +5625,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="352"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5640,7 +5637,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="352"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5652,7 +5649,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="352"/>
+      <c r="A27" s="351"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5664,7 +5661,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="352"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5676,7 +5673,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="352"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5688,7 +5685,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="352"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5700,7 +5697,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="352"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5712,7 +5709,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="352"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5724,7 +5721,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="352"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5736,7 +5733,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="352"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5748,7 +5745,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="352"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5760,7 +5757,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="352"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5772,7 +5769,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="352"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5784,7 +5781,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="352"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5796,7 +5793,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="352"/>
+      <c r="A39" s="351"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5808,7 +5805,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="352"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5820,7 +5817,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="352"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5832,7 +5829,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="352"/>
+      <c r="A42" s="351"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5844,7 +5841,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="352"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5856,7 +5853,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="352"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5868,7 +5865,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="352"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5880,7 +5877,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="352"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5892,7 +5889,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="352"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5904,7 +5901,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="352"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5916,7 +5913,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="352"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5928,7 +5925,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="352"/>
+      <c r="A50" s="351"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5940,7 +5937,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="352"/>
+      <c r="A51" s="351"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5952,7 +5949,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="352"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5964,7 +5961,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="352"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5976,7 +5973,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="352"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5988,7 +5985,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="352"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -6000,7 +5997,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="352"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -6012,7 +6009,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="352"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -6024,7 +6021,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="352"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -6036,7 +6033,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="352"/>
+      <c r="A59" s="351"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -6047,7 +6044,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="352"/>
+      <c r="A60" s="351"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -6058,7 +6055,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="352"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -6069,7 +6066,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="352"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -6080,7 +6077,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="352"/>
+      <c r="A63" s="351"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6091,7 +6088,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="352"/>
+      <c r="A64" s="351"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6102,7 +6099,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="352"/>
+      <c r="A65" s="351"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6113,7 +6110,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="352"/>
+      <c r="A66" s="351"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6124,7 +6121,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="352"/>
+      <c r="A67" s="351"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6135,7 +6132,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="352"/>
+      <c r="A68" s="351"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6146,7 +6143,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="352"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6157,7 +6154,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="352"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6168,7 +6165,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="352"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6179,7 +6176,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="352"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6190,7 +6187,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="352"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6201,7 +6198,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="352"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6212,7 +6209,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="352"/>
+      <c r="A75" s="351"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6223,7 +6220,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="352"/>
+      <c r="A76" s="351"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6234,7 +6231,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="352"/>
+      <c r="A77" s="351"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6245,7 +6242,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="352"/>
+      <c r="A78" s="351"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6256,7 +6253,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="352"/>
+      <c r="A79" s="351"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6268,7 +6265,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="352"/>
+      <c r="A80" s="351"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6280,7 +6277,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="352"/>
+      <c r="A81" s="351"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6292,7 +6289,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="352"/>
+      <c r="A82" s="351"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6304,7 +6301,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="352"/>
+      <c r="A83" s="351"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6384,67 +6381,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
-      <c r="H1" s="357"/>
-      <c r="I1" s="357"/>
-      <c r="J1" s="357"/>
-      <c r="K1" s="357"/>
-      <c r="L1" s="357"/>
-      <c r="M1" s="357"/>
-      <c r="N1" s="357"/>
-      <c r="O1" s="357"/>
-      <c r="P1" s="357"/>
-      <c r="Q1" s="357"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
+      <c r="P1" s="352"/>
+      <c r="Q1" s="352"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="358" t="s">
+      <c r="A2" s="353" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
-      <c r="N2" s="358"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="358"/>
-      <c r="Q2" s="358"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="353"/>
+      <c r="Q2" s="353"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="354" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
-      <c r="H3" s="360"/>
-      <c r="I3" s="360"/>
-      <c r="J3" s="360"/>
-      <c r="K3" s="360"/>
-      <c r="L3" s="360"/>
-      <c r="M3" s="360"/>
-      <c r="N3" s="360"/>
-      <c r="O3" s="360"/>
-      <c r="P3" s="360"/>
-      <c r="Q3" s="361"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="356"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6453,52 +6450,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="364" t="s">
+      <c r="B4" s="359" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="361" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="353" t="s">
+      <c r="D4" s="361" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="353" t="s">
+      <c r="F4" s="361" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="353" t="s">
+      <c r="G4" s="361" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="353" t="s">
+      <c r="H4" s="361" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="353" t="s">
+      <c r="I4" s="361" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="353" t="s">
+      <c r="J4" s="361" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="353" t="s">
+      <c r="K4" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="353" t="s">
+      <c r="L4" s="361" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="353" t="s">
+      <c r="M4" s="361" t="s">
         <v>236</v>
       </c>
-      <c r="N4" s="353" t="s">
+      <c r="N4" s="361" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="355" t="s">
+      <c r="O4" s="365" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="366" t="s">
+      <c r="P4" s="363" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6511,22 +6508,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="363"/>
-      <c r="B5" s="365"/>
-      <c r="C5" s="354"/>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354"/>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354"/>
-      <c r="H5" s="354"/>
-      <c r="I5" s="354"/>
-      <c r="J5" s="354"/>
-      <c r="K5" s="354"/>
-      <c r="L5" s="354"/>
-      <c r="M5" s="354"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="356"/>
-      <c r="P5" s="367"/>
+      <c r="A5" s="358"/>
+      <c r="B5" s="360"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="362"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="362"/>
+      <c r="J5" s="362"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="362"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="366"/>
+      <c r="P5" s="364"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -9625,6 +9622,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9641,9 +9641,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9657,8 +9654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9685,14 +9682,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="370" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="373"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="372"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9786,14 +9783,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="373" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="376"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="375"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9887,14 +9884,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="376" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="379"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="378"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -13309,12 +13306,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="370" t="s">
+      <c r="B35" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="370"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="370"/>
+      <c r="C35" s="369"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="369"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -14495,10 +14492,10 @@
       <c r="C46" s="295">
         <v>1718911905</v>
       </c>
-      <c r="D46" s="296">
+      <c r="D46" s="307">
         <v>414990</v>
       </c>
-      <c r="E46" s="297" t="s">
+      <c r="E46" s="296" t="s">
         <v>252</v>
       </c>
       <c r="F46" s="130"/>
@@ -14611,16 +14608,16 @@
       <c r="A47" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="298" t="s">
+      <c r="B47" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="299">
+      <c r="C47" s="298">
         <v>1765002244</v>
       </c>
-      <c r="D47" s="300">
+      <c r="D47" s="299">
         <v>380000</v>
       </c>
-      <c r="E47" s="301" t="s">
+      <c r="E47" s="300" t="s">
         <v>252</v>
       </c>
       <c r="F47" s="131"/>
@@ -14733,16 +14730,16 @@
       <c r="A48" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="302" t="s">
+      <c r="B48" s="301" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="299">
+      <c r="C48" s="298">
         <v>1716697790</v>
       </c>
-      <c r="D48" s="300">
+      <c r="D48" s="307">
         <v>382330</v>
       </c>
-      <c r="E48" s="303" t="s">
+      <c r="E48" s="302" t="s">
         <v>213</v>
       </c>
       <c r="F48" s="131"/>
@@ -14855,16 +14852,16 @@
       <c r="A49" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="304" t="s">
+      <c r="B49" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="299">
+      <c r="C49" s="298">
         <v>1743942020</v>
       </c>
-      <c r="D49" s="300">
+      <c r="D49" s="307">
         <v>515910</v>
       </c>
-      <c r="E49" s="301" t="s">
+      <c r="E49" s="300" t="s">
         <v>213</v>
       </c>
       <c r="F49" s="131"/>
@@ -14977,16 +14974,16 @@
       <c r="A50" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="302" t="s">
+      <c r="B50" s="301" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="299">
+      <c r="C50" s="298">
         <v>1723246584</v>
       </c>
-      <c r="D50" s="300">
+      <c r="D50" s="299">
         <v>98390</v>
       </c>
-      <c r="E50" s="303" t="s">
+      <c r="E50" s="302" t="s">
         <v>252</v>
       </c>
       <c r="F50" s="131"/>
@@ -15097,16 +15094,16 @@
       <c r="A51" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="298" t="s">
+      <c r="B51" s="297" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="299">
+      <c r="C51" s="298">
         <v>1739791780</v>
       </c>
-      <c r="D51" s="300">
+      <c r="D51" s="307">
         <v>23000</v>
       </c>
-      <c r="E51" s="305" t="s">
+      <c r="E51" s="304" t="s">
         <v>235</v>
       </c>
       <c r="F51" s="131"/>
@@ -15219,16 +15216,16 @@
       <c r="A52" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="302" t="s">
+      <c r="B52" s="301" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="299">
+      <c r="C52" s="298">
         <v>1725821212</v>
       </c>
-      <c r="D52" s="300">
+      <c r="D52" s="299">
         <v>65900</v>
       </c>
-      <c r="E52" s="303" t="s">
+      <c r="E52" s="302" t="s">
         <v>249</v>
       </c>
       <c r="F52" s="131"/>
@@ -15339,16 +15336,16 @@
       <c r="A53" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="302" t="s">
+      <c r="B53" s="301" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="299">
+      <c r="C53" s="298">
         <v>1749334499</v>
       </c>
-      <c r="D53" s="300">
+      <c r="D53" s="307">
         <v>97130</v>
       </c>
-      <c r="E53" s="301" t="s">
+      <c r="E53" s="300" t="s">
         <v>249</v>
       </c>
       <c r="F53" s="131"/>
@@ -15461,14 +15458,14 @@
       <c r="A54" s="293" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="307" t="s">
+      <c r="B54" s="306" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="308">
+      <c r="C54" s="298"/>
+      <c r="D54" s="307">
         <v>45660</v>
       </c>
-      <c r="E54" s="303" t="s">
+      <c r="E54" s="302" t="s">
         <v>244</v>
       </c>
       <c r="F54" s="131"/>
@@ -15581,14 +15578,14 @@
       <c r="A55" s="293" t="s">
         <v>226</v>
       </c>
-      <c r="B55" s="304" t="s">
+      <c r="B55" s="303" t="s">
         <v>240</v>
       </c>
-      <c r="C55" s="299"/>
-      <c r="D55" s="300">
+      <c r="C55" s="298"/>
+      <c r="D55" s="299">
         <v>6980</v>
       </c>
-      <c r="E55" s="301" t="s">
+      <c r="E55" s="300" t="s">
         <v>234</v>
       </c>
       <c r="F55" s="131"/>
@@ -15700,17 +15697,17 @@
       <c r="CS55" s="137"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="306" t="s">
+      <c r="A56" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="298" t="s">
+      <c r="B56" s="297" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="299"/>
-      <c r="D56" s="300">
+      <c r="C56" s="298"/>
+      <c r="D56" s="307">
         <v>163620</v>
       </c>
-      <c r="E56" s="305" t="s">
+      <c r="E56" s="304" t="s">
         <v>252</v>
       </c>
       <c r="F56" s="131"/>
@@ -15820,11 +15817,11 @@
       <c r="CS56" s="137"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="306"/>
-      <c r="B57" s="302"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="301"/>
+      <c r="A57" s="305"/>
+      <c r="B57" s="301"/>
+      <c r="C57" s="298"/>
+      <c r="D57" s="299"/>
+      <c r="E57" s="300"/>
       <c r="F57" s="131"/>
       <c r="G57" s="137"/>
       <c r="H57" s="186" t="s">
@@ -15944,7 +15941,7 @@
       <c r="D58" s="290">
         <v>185700</v>
       </c>
-      <c r="E58" s="310" t="s">
+      <c r="E58" s="309" t="s">
         <v>235</v>
       </c>
       <c r="F58" s="131"/>
@@ -16064,7 +16061,7 @@
       <c r="D59" s="290">
         <v>5370</v>
       </c>
-      <c r="E59" s="310" t="s">
+      <c r="E59" s="309" t="s">
         <v>235</v>
       </c>
       <c r="F59" s="131"/>
@@ -16186,7 +16183,7 @@
       <c r="D60" s="290">
         <v>10500</v>
       </c>
-      <c r="E60" s="309" t="s">
+      <c r="E60" s="308" t="s">
         <v>191</v>
       </c>
       <c r="F60" s="131"/>
@@ -16308,7 +16305,7 @@
       <c r="D61" s="290">
         <v>16510</v>
       </c>
-      <c r="E61" s="309" t="s">
+      <c r="E61" s="308" t="s">
         <v>160</v>
       </c>
       <c r="F61" s="133"/>
@@ -16430,7 +16427,7 @@
       <c r="D62" s="290">
         <v>17400</v>
       </c>
-      <c r="E62" s="310" t="s">
+      <c r="E62" s="309" t="s">
         <v>126</v>
       </c>
       <c r="F62" s="130"/>
@@ -16552,7 +16549,7 @@
       <c r="D63" s="290">
         <v>21440</v>
       </c>
-      <c r="E63" s="310" t="s">
+      <c r="E63" s="309" t="s">
         <v>156</v>
       </c>
       <c r="F63" s="131"/>
@@ -16674,7 +16671,7 @@
       <c r="D64" s="290">
         <v>12000</v>
       </c>
-      <c r="E64" s="310" t="s">
+      <c r="E64" s="309" t="s">
         <v>201</v>
       </c>
       <c r="F64" s="131"/>
@@ -16787,7 +16784,7 @@
       <c r="A65" s="287" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="311" t="s">
+      <c r="B65" s="310" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="289" t="s">
@@ -16796,7 +16793,7 @@
       <c r="D65" s="290">
         <v>5000</v>
       </c>
-      <c r="E65" s="309" t="s">
+      <c r="E65" s="308" t="s">
         <v>145</v>
       </c>
       <c r="F65" s="131"/>
@@ -16916,7 +16913,7 @@
       <c r="D66" s="290">
         <v>46000</v>
       </c>
-      <c r="E66" s="310" t="s">
+      <c r="E66" s="309" t="s">
         <v>239</v>
       </c>
       <c r="F66" s="131"/>
@@ -17148,7 +17145,7 @@
       <c r="B68" s="292"/>
       <c r="C68" s="289"/>
       <c r="D68" s="290"/>
-      <c r="E68" s="310"/>
+      <c r="E68" s="309"/>
       <c r="F68" s="131"/>
       <c r="G68" s="137"/>
       <c r="H68" s="186" t="s">
@@ -17370,7 +17367,7 @@
       <c r="B70" s="288"/>
       <c r="C70" s="289"/>
       <c r="D70" s="290"/>
-      <c r="E70" s="309"/>
+      <c r="E70" s="308"/>
       <c r="F70" s="131"/>
       <c r="G70" s="137"/>
       <c r="H70" s="174" t="s">
@@ -17476,19 +17473,19 @@
       <c r="CS70" s="137"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="312" t="s">
+      <c r="A71" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="313" t="s">
+      <c r="B71" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="314">
+      <c r="C71" s="313">
         <v>1811710431</v>
       </c>
-      <c r="D71" s="315">
+      <c r="D71" s="314">
         <v>1960</v>
       </c>
-      <c r="E71" s="317" t="s">
+      <c r="E71" s="316" t="s">
         <v>155</v>
       </c>
       <c r="F71" s="133"/>
@@ -17598,19 +17595,19 @@
       <c r="CS71" s="137"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="312" t="s">
+      <c r="A72" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="313" t="s">
+      <c r="B72" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="314">
+      <c r="C72" s="313">
         <v>1750481144</v>
       </c>
-      <c r="D72" s="318">
+      <c r="D72" s="317">
         <v>24160</v>
       </c>
-      <c r="E72" s="319" t="s">
+      <c r="E72" s="318" t="s">
         <v>249</v>
       </c>
       <c r="F72" s="133"/>
@@ -17720,17 +17717,17 @@
       <c r="CS72" s="137"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="312" t="s">
+      <c r="A73" s="311" t="s">
         <v>208</v>
       </c>
-      <c r="B73" s="323" t="s">
+      <c r="B73" s="322" t="s">
         <v>209</v>
       </c>
-      <c r="C73" s="320"/>
-      <c r="D73" s="315">
+      <c r="C73" s="319"/>
+      <c r="D73" s="314">
         <v>8000</v>
       </c>
-      <c r="E73" s="317" t="s">
+      <c r="E73" s="316" t="s">
         <v>206</v>
       </c>
       <c r="F73" s="133"/>
@@ -17838,17 +17835,17 @@
       <c r="CS73" s="137"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="312" t="s">
+      <c r="A74" s="311" t="s">
         <v>198</v>
       </c>
-      <c r="B74" s="323" t="s">
+      <c r="B74" s="322" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="314"/>
-      <c r="D74" s="315">
+      <c r="C74" s="313"/>
+      <c r="D74" s="314">
         <v>34800</v>
       </c>
-      <c r="E74" s="317" t="s">
+      <c r="E74" s="316" t="s">
         <v>245</v>
       </c>
       <c r="F74" s="133"/>
@@ -17958,17 +17955,17 @@
       <c r="CS74" s="137"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="312" t="s">
+      <c r="A75" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="313" t="s">
+      <c r="B75" s="312" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="320"/>
-      <c r="D75" s="315">
+      <c r="C75" s="319"/>
+      <c r="D75" s="314">
         <v>15000</v>
       </c>
-      <c r="E75" s="317" t="s">
+      <c r="E75" s="316" t="s">
         <v>145</v>
       </c>
       <c r="F75" s="131"/>
@@ -18076,19 +18073,19 @@
       <c r="CS75" s="137"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="312" t="s">
+      <c r="A76" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="313" t="s">
+      <c r="B76" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="314">
+      <c r="C76" s="313">
         <v>1761236031</v>
       </c>
-      <c r="D76" s="318">
+      <c r="D76" s="317">
         <v>7000</v>
       </c>
-      <c r="E76" s="319" t="s">
+      <c r="E76" s="318" t="s">
         <v>99</v>
       </c>
       <c r="F76" s="131"/>
@@ -18198,19 +18195,19 @@
       <c r="CS76" s="137"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="312" t="s">
+      <c r="A77" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="313" t="s">
+      <c r="B77" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="314">
+      <c r="C77" s="313">
         <v>1309083520</v>
       </c>
-      <c r="D77" s="315">
+      <c r="D77" s="314">
         <v>235000</v>
       </c>
-      <c r="E77" s="319" t="s">
+      <c r="E77" s="318" t="s">
         <v>249</v>
       </c>
       <c r="F77" s="137"/>
@@ -18320,17 +18317,17 @@
       <c r="CS77" s="137"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="312" t="s">
+      <c r="A78" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="313" t="s">
+      <c r="B78" s="312" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="314"/>
-      <c r="D78" s="315">
+      <c r="C78" s="313"/>
+      <c r="D78" s="314">
         <v>20530</v>
       </c>
-      <c r="E78" s="319" t="s">
+      <c r="E78" s="318" t="s">
         <v>203</v>
       </c>
       <c r="F78" s="267"/>
@@ -18438,17 +18435,17 @@
       <c r="CS78" s="137"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="312" t="s">
+      <c r="A79" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="313" t="s">
+      <c r="B79" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="320"/>
-      <c r="D79" s="315">
+      <c r="C79" s="319"/>
+      <c r="D79" s="314">
         <v>20000</v>
       </c>
-      <c r="E79" s="319" t="s">
+      <c r="E79" s="318" t="s">
         <v>164</v>
       </c>
       <c r="F79" s="131"/>
@@ -18556,17 +18553,17 @@
       <c r="CS79" s="137"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="312" t="s">
+      <c r="A80" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="313" t="s">
+      <c r="B80" s="312" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="314"/>
-      <c r="D80" s="315">
+      <c r="C80" s="313"/>
+      <c r="D80" s="314">
         <v>28540</v>
       </c>
-      <c r="E80" s="316" t="s">
+      <c r="E80" s="315" t="s">
         <v>197</v>
       </c>
       <c r="F80" s="137"/>
@@ -18674,17 +18671,17 @@
       <c r="CS80" s="137"/>
     </row>
     <row r="81" spans="1:97">
-      <c r="A81" s="321" t="s">
+      <c r="A81" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="322" t="s">
+      <c r="B81" s="321" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="314"/>
-      <c r="D81" s="315">
+      <c r="C81" s="313"/>
+      <c r="D81" s="314">
         <v>8000</v>
       </c>
-      <c r="E81" s="319" t="s">
+      <c r="E81" s="318" t="s">
         <v>245</v>
       </c>
       <c r="F81" s="131"/>
@@ -18794,19 +18791,19 @@
       <c r="CS81" s="137"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="312" t="s">
+      <c r="A82" s="311" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="313" t="s">
+      <c r="B82" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="314">
+      <c r="C82" s="313">
         <v>1789726772</v>
       </c>
-      <c r="D82" s="315">
+      <c r="D82" s="314">
         <v>45000</v>
       </c>
-      <c r="E82" s="319" t="s">
+      <c r="E82" s="318" t="s">
         <v>171</v>
       </c>
       <c r="F82" s="131"/>
@@ -18914,17 +18911,17 @@
       <c r="CS82" s="137"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="312" t="s">
+      <c r="A83" s="311" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="324" t="s">
+      <c r="B83" s="323" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="314"/>
-      <c r="D83" s="315">
+      <c r="C83" s="313"/>
+      <c r="D83" s="314">
         <v>30000</v>
       </c>
-      <c r="E83" s="319" t="s">
+      <c r="E83" s="318" t="s">
         <v>245</v>
       </c>
       <c r="F83" s="131"/>
@@ -19032,17 +19029,17 @@
       <c r="CS83" s="137"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="312" t="s">
+      <c r="A84" s="311" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="324" t="s">
+      <c r="B84" s="323" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="314"/>
-      <c r="D84" s="315">
+      <c r="C84" s="313"/>
+      <c r="D84" s="314">
         <v>49140</v>
       </c>
-      <c r="E84" s="319" t="s">
+      <c r="E84" s="318" t="s">
         <v>201</v>
       </c>
       <c r="F84" s="264"/>
@@ -19150,19 +19147,19 @@
       <c r="CS84" s="137"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="312" t="s">
+      <c r="A85" s="311" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="313" t="s">
+      <c r="B85" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="C85" s="314">
+      <c r="C85" s="313">
         <v>1729190349</v>
       </c>
-      <c r="D85" s="315">
+      <c r="D85" s="314">
         <v>69000</v>
       </c>
-      <c r="E85" s="319" t="s">
+      <c r="E85" s="318" t="s">
         <v>241</v>
       </c>
       <c r="F85" s="131"/>
@@ -19272,17 +19269,17 @@
       <c r="CS85" s="137"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="312" t="s">
+      <c r="A86" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="324" t="s">
+      <c r="B86" s="323" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="314"/>
-      <c r="D86" s="315">
+      <c r="C86" s="313"/>
+      <c r="D86" s="314">
         <v>7300</v>
       </c>
-      <c r="E86" s="316" t="s">
+      <c r="E86" s="315" t="s">
         <v>206</v>
       </c>
       <c r="F86" s="131"/>
@@ -19390,17 +19387,17 @@
       <c r="CS86" s="137"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="312" t="s">
+      <c r="A87" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="313" t="s">
+      <c r="B87" s="312" t="s">
         <v>221</v>
       </c>
-      <c r="C87" s="314"/>
-      <c r="D87" s="315">
+      <c r="C87" s="313"/>
+      <c r="D87" s="314">
         <v>28680</v>
       </c>
-      <c r="E87" s="317" t="s">
+      <c r="E87" s="316" t="s">
         <v>220</v>
       </c>
       <c r="F87" s="131"/>
@@ -19510,17 +19507,17 @@
       <c r="CS87" s="137"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="312" t="s">
+      <c r="A88" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="313" t="s">
+      <c r="B88" s="312" t="s">
         <v>214</v>
       </c>
-      <c r="C88" s="314"/>
-      <c r="D88" s="315">
+      <c r="C88" s="313"/>
+      <c r="D88" s="314">
         <v>60580</v>
       </c>
-      <c r="E88" s="319" t="s">
+      <c r="E88" s="318" t="s">
         <v>249</v>
       </c>
       <c r="F88" s="267"/>
@@ -19630,17 +19627,17 @@
       <c r="CS88" s="137"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="312" t="s">
+      <c r="A89" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="313" t="s">
+      <c r="B89" s="312" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="314"/>
-      <c r="D89" s="315">
+      <c r="C89" s="313"/>
+      <c r="D89" s="314">
         <v>40990</v>
       </c>
-      <c r="E89" s="319" t="s">
+      <c r="E89" s="318" t="s">
         <v>220</v>
       </c>
       <c r="F89" s="131"/>
@@ -19750,17 +19747,17 @@
       <c r="CS89" s="137"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="325" t="s">
+      <c r="A90" s="324" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="313" t="s">
+      <c r="B90" s="312" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="314"/>
-      <c r="D90" s="315">
+      <c r="C90" s="313"/>
+      <c r="D90" s="314">
         <v>32510</v>
       </c>
-      <c r="E90" s="316" t="s">
+      <c r="E90" s="315" t="s">
         <v>244</v>
       </c>
       <c r="F90" s="131"/>
@@ -19860,17 +19857,17 @@
       <c r="CS90" s="137"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="325" t="s">
+      <c r="A91" s="324" t="s">
         <v>237</v>
       </c>
-      <c r="B91" s="313" t="s">
+      <c r="B91" s="312" t="s">
         <v>228</v>
       </c>
-      <c r="C91" s="314"/>
-      <c r="D91" s="315">
+      <c r="C91" s="313"/>
+      <c r="D91" s="314">
         <v>15080</v>
       </c>
-      <c r="E91" s="319" t="s">
+      <c r="E91" s="318" t="s">
         <v>225</v>
       </c>
       <c r="F91" s="137"/>
@@ -19970,17 +19967,17 @@
       <c r="CS91" s="137"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="312" t="s">
+      <c r="A92" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="313" t="s">
+      <c r="B92" s="312" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="314"/>
-      <c r="D92" s="315">
+      <c r="C92" s="313"/>
+      <c r="D92" s="314">
         <v>10930</v>
       </c>
-      <c r="E92" s="316" t="s">
+      <c r="E92" s="315" t="s">
         <v>252</v>
       </c>
       <c r="F92" s="267"/>
@@ -20080,15 +20077,15 @@
       <c r="CS92" s="137"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="312"/>
-      <c r="B93" s="313" t="s">
+      <c r="A93" s="311"/>
+      <c r="B93" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="C93" s="314"/>
-      <c r="D93" s="315">
+      <c r="C93" s="313"/>
+      <c r="D93" s="314">
         <v>180</v>
       </c>
-      <c r="E93" s="317" t="s">
+      <c r="E93" s="316" t="s">
         <v>245</v>
       </c>
       <c r="F93" s="131"/>
@@ -20188,15 +20185,15 @@
       <c r="CS93" s="137"/>
     </row>
     <row r="94" spans="1:97">
-      <c r="A94" s="312"/>
-      <c r="B94" s="313" t="s">
+      <c r="A94" s="311"/>
+      <c r="B94" s="312" t="s">
         <v>254</v>
       </c>
-      <c r="C94" s="314"/>
-      <c r="D94" s="315">
+      <c r="C94" s="313"/>
+      <c r="D94" s="314">
         <v>1000</v>
       </c>
-      <c r="E94" s="316" t="s">
+      <c r="E94" s="315" t="s">
         <v>252</v>
       </c>
       <c r="F94" s="267"/>
@@ -20296,17 +20293,17 @@
       <c r="CS94" s="137"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="312" t="s">
+      <c r="A95" s="311" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="313" t="s">
+      <c r="B95" s="312" t="s">
         <v>255</v>
       </c>
-      <c r="C95" s="314"/>
-      <c r="D95" s="315">
+      <c r="C95" s="313"/>
+      <c r="D95" s="314">
         <v>32000</v>
       </c>
-      <c r="E95" s="317" t="s">
+      <c r="E95" s="316" t="s">
         <v>252</v>
       </c>
       <c r="F95" s="137"/>
@@ -20406,11 +20403,11 @@
       <c r="CS95" s="137"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="312"/>
-      <c r="B96" s="313"/>
-      <c r="C96" s="314"/>
-      <c r="D96" s="315"/>
-      <c r="E96" s="317"/>
+      <c r="A96" s="311"/>
+      <c r="B96" s="312"/>
+      <c r="C96" s="313"/>
+      <c r="D96" s="314"/>
+      <c r="E96" s="316"/>
       <c r="F96" s="137"/>
       <c r="G96" s="137"/>
       <c r="H96" s="186"/>
@@ -20508,11 +20505,11 @@
       <c r="CS96" s="137"/>
     </row>
     <row r="97" spans="1:97">
-      <c r="A97" s="312"/>
-      <c r="B97" s="313"/>
-      <c r="C97" s="314"/>
-      <c r="D97" s="315"/>
-      <c r="E97" s="317"/>
+      <c r="A97" s="311"/>
+      <c r="B97" s="312"/>
+      <c r="C97" s="313"/>
+      <c r="D97" s="314"/>
+      <c r="E97" s="316"/>
       <c r="F97" s="137"/>
       <c r="G97" s="137"/>
       <c r="H97" s="186"/>
@@ -22792,11 +22789,11 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="368" t="s">
+      <c r="A119" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="369"/>
-      <c r="C119" s="380"/>
+      <c r="B119" s="368"/>
+      <c r="C119" s="379"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3462920</v>
@@ -22999,11 +22996,11 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="368" t="s">
+      <c r="A121" s="367" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="369"/>
-      <c r="C121" s="369"/>
+      <c r="B121" s="368"/>
+      <c r="C121" s="368"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3462920</v>
@@ -34239,7 +34236,7 @@
   </sheetPr>
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -34259,35 +34256,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="383" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="386"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="385"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="389" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="391"/>
-      <c r="E2" s="392"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="386" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="389"/>
+      <c r="B3" s="387"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="388"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34310,15 +34307,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="393" t="s">
+      <c r="A4" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="394"/>
+      <c r="B4" s="393"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="395" t="s">
+      <c r="D4" s="394" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="396"/>
+      <c r="E4" s="395"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34442,7 +34439,7 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="21.75">
-      <c r="A8" s="332"/>
+      <c r="A8" s="331"/>
       <c r="B8" s="260"/>
       <c r="C8" s="39"/>
       <c r="D8" s="235"/>
@@ -34539,15 +34536,15 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="346" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="348">
+      <c r="B11" s="347">
         <f>B6-B9-B10</f>
         <v>202033.48750000005</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="333"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="242"/>
       <c r="F11" s="7"/>
       <c r="G11" s="232"/>
@@ -34636,9 +34633,9 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="335"/>
-      <c r="B14" s="336"/>
-      <c r="C14" s="334"/>
+      <c r="A14" s="334"/>
+      <c r="B14" s="335"/>
+      <c r="C14" s="333"/>
       <c r="D14" s="39" t="s">
         <v>118</v>
       </c>
@@ -34667,7 +34664,7 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="21.75">
-      <c r="A15" s="346"/>
+      <c r="A15" s="345"/>
       <c r="B15" s="260"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -34694,7 +34691,7 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75">
-      <c r="A16" s="332"/>
+      <c r="A16" s="331"/>
       <c r="B16" s="260"/>
       <c r="C16" s="40"/>
       <c r="D16" s="122"/>
@@ -34790,13 +34787,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="381" t="s">
+      <c r="A19" s="380" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="382"/>
-      <c r="C19" s="382"/>
-      <c r="D19" s="382"/>
-      <c r="E19" s="383"/>
+      <c r="B19" s="381"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="382"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34819,17 +34816,17 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:25" ht="22.5">
-      <c r="A20" s="327" t="s">
+      <c r="A20" s="326" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="328">
+      <c r="B20" s="327">
         <v>185700</v>
       </c>
-      <c r="C20" s="329"/>
-      <c r="D20" s="330" t="s">
+      <c r="C20" s="328"/>
+      <c r="D20" s="329" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="331">
+      <c r="E20" s="330">
         <v>414990</v>
       </c>
       <c r="F20" s="5"/>
@@ -35286,17 +35283,17 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" ht="21.75">
-      <c r="A35" s="342" t="s">
+      <c r="A35" s="341" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="344">
+      <c r="B35" s="343">
         <v>215000</v>
       </c>
-      <c r="C35" s="339"/>
-      <c r="D35" s="340" t="s">
+      <c r="C35" s="338"/>
+      <c r="D35" s="339" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="341">
+      <c r="E35" s="340">
         <v>46000</v>
       </c>
       <c r="G35" s="16"/>
@@ -35314,17 +35311,17 @@
       <c r="Y35" s="7"/>
     </row>
     <row r="36" spans="1:25" ht="21.75">
-      <c r="A36" s="337" t="s">
+      <c r="A36" s="336" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="338">
+      <c r="B36" s="337">
         <v>20530</v>
       </c>
-      <c r="C36" s="339"/>
-      <c r="D36" s="340" t="s">
+      <c r="C36" s="338"/>
+      <c r="D36" s="339" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="341">
+      <c r="E36" s="340">
         <v>49140</v>
       </c>
       <c r="G36" s="16"/>
@@ -35342,13 +35339,13 @@
       <c r="Y36" s="7"/>
     </row>
     <row r="37" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A37" s="343" t="s">
+      <c r="A37" s="342" t="s">
         <v>256</v>
       </c>
-      <c r="B37" s="345">
+      <c r="B37" s="344">
         <v>32000</v>
       </c>
-      <c r="C37" s="326"/>
+      <c r="C37" s="325"/>
       <c r="D37" s="272" t="s">
         <v>152</v>
       </c>
